--- a/tests/test_data/sample1.xlsx
+++ b/tests/test_data/sample1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,49 +458,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Point_A</t>
+          <t>Point1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2498.16</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="n">
-        <v>4394.634</v>
+        <v>3000</v>
       </c>
       <c r="D2" t="n">
-        <v>3232.334</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Point_B</t>
+          <t>Point2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4802.857</v>
+        <v>2000</v>
       </c>
       <c r="C3" t="n">
-        <v>2624.075</v>
+        <v>4000</v>
       </c>
       <c r="D3" t="n">
-        <v>6464.705</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Point_C</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3927.976</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2623.978</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5404.46</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
